--- a/data/pca/factorExposure/factorExposure_2017-10-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02378842959840455</v>
+        <v>0.01354694659364403</v>
       </c>
       <c r="C2">
-        <v>-0.002169870008676329</v>
+        <v>-0.03872751369379748</v>
       </c>
       <c r="D2">
-        <v>0.01677619084816701</v>
+        <v>-0.02863819303575415</v>
       </c>
       <c r="E2">
-        <v>-0.0141430344712585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03216126497957374</v>
+      </c>
+      <c r="F2">
+        <v>0.01806559238383071</v>
+      </c>
+      <c r="G2">
+        <v>0.02236828887510507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0116770111752524</v>
+        <v>0.05204675235725599</v>
       </c>
       <c r="C3">
-        <v>-0.0465013865576973</v>
+        <v>-0.07421169788231666</v>
       </c>
       <c r="D3">
-        <v>0.01486368076063281</v>
+        <v>-0.01453405650154754</v>
       </c>
       <c r="E3">
-        <v>-0.01146675725100073</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08924903313870379</v>
+      </c>
+      <c r="F3">
+        <v>0.06113783183148551</v>
+      </c>
+      <c r="G3">
+        <v>0.07392133308504541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02180417161842859</v>
+        <v>0.05669148796440538</v>
       </c>
       <c r="C4">
-        <v>-0.01817898315505042</v>
+        <v>-0.06207283463029088</v>
       </c>
       <c r="D4">
-        <v>0.06228465221565799</v>
+        <v>-0.02265735694808543</v>
       </c>
       <c r="E4">
-        <v>0.01187194727560428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01386139006777873</v>
+      </c>
+      <c r="F4">
+        <v>0.006548007553389542</v>
+      </c>
+      <c r="G4">
+        <v>0.0474089907883376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01472182831695005</v>
+        <v>0.03297644555039054</v>
       </c>
       <c r="C6">
-        <v>-0.02194008373854082</v>
+        <v>-0.05301240466048616</v>
       </c>
       <c r="D6">
-        <v>0.08273039520553273</v>
+        <v>-0.0159969944997549</v>
       </c>
       <c r="E6">
-        <v>-0.001084592497240292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.00968798994327455</v>
+      </c>
+      <c r="F6">
+        <v>0.007608397498301089</v>
+      </c>
+      <c r="G6">
+        <v>0.02785337951785725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01029841016476081</v>
+        <v>0.02041921454899596</v>
       </c>
       <c r="C7">
-        <v>-0.006115642689441907</v>
+        <v>-0.03633822558762552</v>
       </c>
       <c r="D7">
-        <v>0.04000977368435832</v>
+        <v>-0.01265824026016662</v>
       </c>
       <c r="E7">
-        <v>0.06801358860729757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01100288766668747</v>
+      </c>
+      <c r="F7">
+        <v>0.003132103231684659</v>
+      </c>
+      <c r="G7">
+        <v>0.07847105492603729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>4.385718638085639e-05</v>
+        <v>-0.001702283669807831</v>
       </c>
       <c r="C8">
-        <v>0.007294875621078573</v>
+        <v>-0.01440232202937958</v>
       </c>
       <c r="D8">
-        <v>0.0173231659601861</v>
+        <v>-0.003675571594926398</v>
       </c>
       <c r="E8">
-        <v>0.004596770650414712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01093083325873325</v>
+      </c>
+      <c r="F8">
+        <v>0.02079858416615455</v>
+      </c>
+      <c r="G8">
+        <v>0.02143305489599194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01433379867915868</v>
+        <v>0.02938775953489735</v>
       </c>
       <c r="C9">
-        <v>-0.01787580596212609</v>
+        <v>-0.04331156320164262</v>
       </c>
       <c r="D9">
-        <v>0.04555487422571771</v>
+        <v>-0.01587915830420267</v>
       </c>
       <c r="E9">
-        <v>0.00226781888535682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01535516539337774</v>
+      </c>
+      <c r="F9">
+        <v>0.01264410872642811</v>
+      </c>
+      <c r="G9">
+        <v>0.03842911594047853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.00875491848895823</v>
+        <v>0.08992393678148458</v>
       </c>
       <c r="C10">
-        <v>-0.1466994820342987</v>
+        <v>0.1860660591020401</v>
       </c>
       <c r="D10">
-        <v>-0.1330239230948384</v>
+        <v>0.01912843760559643</v>
       </c>
       <c r="E10">
-        <v>0.01743501538028506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.0167101377181998</v>
+      </c>
+      <c r="F10">
+        <v>-0.01532424066669772</v>
+      </c>
+      <c r="G10">
+        <v>0.03947010170361635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>9.000557635385093e-05</v>
+        <v>0.03483318148953595</v>
       </c>
       <c r="C11">
-        <v>-0.006384230117236321</v>
+        <v>-0.05337830248196679</v>
       </c>
       <c r="D11">
-        <v>0.04511552639998172</v>
+        <v>-0.001885317771035953</v>
       </c>
       <c r="E11">
-        <v>-0.01292082513539592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.003221494289732421</v>
+      </c>
+      <c r="F11">
+        <v>0.01947201188650768</v>
+      </c>
+      <c r="G11">
+        <v>0.02169780284460914</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005310219270831321</v>
+        <v>0.03238780338594201</v>
       </c>
       <c r="C12">
-        <v>-0.0148425215343169</v>
+        <v>-0.04464105067250509</v>
       </c>
       <c r="D12">
-        <v>0.04768154114410418</v>
+        <v>-0.005813020203773266</v>
       </c>
       <c r="E12">
-        <v>-0.004479766403161004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.003645486732084663</v>
+      </c>
+      <c r="F12">
+        <v>0.004642215209285963</v>
+      </c>
+      <c r="G12">
+        <v>0.02525966108139218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02128086574629194</v>
+        <v>0.01362910726932755</v>
       </c>
       <c r="C13">
-        <v>-0.01516628379628162</v>
+        <v>-0.03228729337786646</v>
       </c>
       <c r="D13">
-        <v>0.01105627483930998</v>
+        <v>-0.02489699818999244</v>
       </c>
       <c r="E13">
-        <v>-0.008796133731994038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02478461164138976</v>
+      </c>
+      <c r="F13">
+        <v>0.01259937190989853</v>
+      </c>
+      <c r="G13">
+        <v>0.03189179243661513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006944883594980925</v>
+        <v>0.009193159753565544</v>
       </c>
       <c r="C14">
-        <v>-0.01253304447916058</v>
+        <v>-0.02680995023341383</v>
       </c>
       <c r="D14">
-        <v>0.01818351905192019</v>
+        <v>-0.008551813306685557</v>
       </c>
       <c r="E14">
-        <v>0.009200952997316731</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.00489349238461445</v>
+      </c>
+      <c r="F14">
+        <v>-0.001296724234925489</v>
+      </c>
+      <c r="G14">
+        <v>0.03894261922751988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0005144211738707982</v>
+        <v>0.03218344302429284</v>
       </c>
       <c r="C16">
-        <v>-0.01175513542462735</v>
+        <v>-0.0432904301043884</v>
       </c>
       <c r="D16">
-        <v>0.05186852665203236</v>
+        <v>-0.001360504754282898</v>
       </c>
       <c r="E16">
-        <v>-0.007614774231154908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.005448185475324642</v>
+      </c>
+      <c r="F16">
+        <v>0.00923983735543573</v>
+      </c>
+      <c r="G16">
+        <v>0.02346943581217764</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01252216712863547</v>
+        <v>0.02932092345371258</v>
       </c>
       <c r="C19">
-        <v>-0.02501764984882401</v>
+        <v>-0.04943099181451704</v>
       </c>
       <c r="D19">
-        <v>0.02722796246096997</v>
+        <v>-0.01568367395049617</v>
       </c>
       <c r="E19">
-        <v>0.003730435994382779</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05146992679775896</v>
+      </c>
+      <c r="F19">
+        <v>0.02898114471160758</v>
+      </c>
+      <c r="G19">
+        <v>0.04686013543276994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01038645011521596</v>
+        <v>0.01252999210601868</v>
       </c>
       <c r="C20">
-        <v>-0.006086311905592837</v>
+        <v>-0.03465722985255892</v>
       </c>
       <c r="D20">
-        <v>0.01487191369079364</v>
+        <v>-0.01318942145844501</v>
       </c>
       <c r="E20">
-        <v>-0.002623588798528881</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02450507524259391</v>
+      </c>
+      <c r="F20">
+        <v>-0.002270609108522425</v>
+      </c>
+      <c r="G20">
+        <v>0.03733115199343592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01343520485773369</v>
+        <v>0.01639620203857654</v>
       </c>
       <c r="C21">
-        <v>-0.03572174687218168</v>
+        <v>-0.03460869851908477</v>
       </c>
       <c r="D21">
-        <v>0.01602011379937505</v>
+        <v>-0.01617231699575101</v>
       </c>
       <c r="E21">
-        <v>0.01808113316116727</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03205228724422026</v>
+      </c>
+      <c r="F21">
+        <v>0.009997603372867085</v>
+      </c>
+      <c r="G21">
+        <v>0.05894626530535146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004688321908407913</v>
+        <v>0.02663959184553824</v>
       </c>
       <c r="C24">
-        <v>-0.007196877234624128</v>
+        <v>-0.04603955449856296</v>
       </c>
       <c r="D24">
-        <v>0.04567010586822832</v>
+        <v>-0.0066373415997688</v>
       </c>
       <c r="E24">
-        <v>-0.007695697669382825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.001712656421743715</v>
+      </c>
+      <c r="F24">
+        <v>0.01555823949354464</v>
+      </c>
+      <c r="G24">
+        <v>0.02493229581859335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01084541532738431</v>
+        <v>0.04353770771132377</v>
       </c>
       <c r="C25">
-        <v>-0.02417083791958071</v>
+        <v>-0.05312846374821611</v>
       </c>
       <c r="D25">
-        <v>0.0443823270615749</v>
+        <v>-0.01052465017896087</v>
       </c>
       <c r="E25">
-        <v>-0.007011937073841876</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.006237423574367163</v>
+      </c>
+      <c r="F25">
+        <v>0.0101335943352767</v>
+      </c>
+      <c r="G25">
+        <v>0.03094863471702659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02273621435470759</v>
+        <v>0.01004389695420009</v>
       </c>
       <c r="C26">
-        <v>-0.008398331713653687</v>
+        <v>-0.009499564837331099</v>
       </c>
       <c r="D26">
-        <v>-0.003265490295811476</v>
+        <v>-0.02358586532135978</v>
       </c>
       <c r="E26">
-        <v>0.007262044563568579</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.0100349015736875</v>
+      </c>
+      <c r="F26">
+        <v>0.0001158628726170871</v>
+      </c>
+      <c r="G26">
+        <v>0.02856214666509867</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02577358696885423</v>
+        <v>0.1136405630534042</v>
       </c>
       <c r="C28">
-        <v>-0.2163646176079768</v>
+        <v>0.2275452893957403</v>
       </c>
       <c r="D28">
-        <v>-0.1891090671925073</v>
+        <v>0.0100050976551199</v>
       </c>
       <c r="E28">
-        <v>0.02876305167296673</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.003339831493566456</v>
+      </c>
+      <c r="F28">
+        <v>-0.01448753513167567</v>
+      </c>
+      <c r="G28">
+        <v>0.05887087583208243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007115937193772135</v>
+        <v>0.01431168440462272</v>
       </c>
       <c r="C29">
-        <v>-0.01763358331046271</v>
+        <v>-0.02059421415746792</v>
       </c>
       <c r="D29">
-        <v>0.01502678631143462</v>
+        <v>-0.007177997684941466</v>
       </c>
       <c r="E29">
-        <v>0.004862676509352151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.004876822598356627</v>
+      </c>
+      <c r="F29">
+        <v>-0.01217659281333948</v>
+      </c>
+      <c r="G29">
+        <v>0.02888768873934899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02369789820929977</v>
+        <v>0.04648320543035024</v>
       </c>
       <c r="C30">
-        <v>-0.007500363408991437</v>
+        <v>-0.06882719026789502</v>
       </c>
       <c r="D30">
-        <v>0.06590387170607559</v>
+        <v>-0.02711646129781133</v>
       </c>
       <c r="E30">
-        <v>-0.06381062053204924</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03928912974407496</v>
+      </c>
+      <c r="F30">
+        <v>0.04338776560146509</v>
+      </c>
+      <c r="G30">
+        <v>0.005722548653829213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.00661043470339441</v>
+        <v>0.04529041683010114</v>
       </c>
       <c r="C31">
-        <v>-0.04644868654478031</v>
+        <v>-0.03131391912993765</v>
       </c>
       <c r="D31">
-        <v>0.04168972942058262</v>
+        <v>-0.003390280980868963</v>
       </c>
       <c r="E31">
-        <v>0.001239508423514698</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008348585478511365</v>
+      </c>
+      <c r="F31">
+        <v>-0.03636738524263428</v>
+      </c>
+      <c r="G31">
+        <v>0.02650445318526712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007165907844657523</v>
+        <v>0.002847993525413579</v>
       </c>
       <c r="C32">
-        <v>-0.01460431155636418</v>
+        <v>-0.0363655171268947</v>
       </c>
       <c r="D32">
-        <v>0.008625117117928474</v>
+        <v>0.003933080058217281</v>
       </c>
       <c r="E32">
-        <v>0.02542471441645882</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01329954875209599</v>
+      </c>
+      <c r="F32">
+        <v>0.05371877514901556</v>
+      </c>
+      <c r="G32">
+        <v>0.05629188451831994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01188970553777176</v>
+        <v>0.02763227569375404</v>
       </c>
       <c r="C33">
-        <v>-0.02314827688285109</v>
+        <v>-0.04924595801190572</v>
       </c>
       <c r="D33">
-        <v>0.02375937920783157</v>
+        <v>-0.01433048710227931</v>
       </c>
       <c r="E33">
-        <v>-0.02647197455683169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02418892695063459</v>
+      </c>
+      <c r="F33">
+        <v>0.02533816599353469</v>
+      </c>
+      <c r="G33">
+        <v>0.03300976340518601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005148910992136206</v>
+        <v>0.04435397510757358</v>
       </c>
       <c r="C34">
-        <v>-0.0196958958618485</v>
+        <v>-0.05442879882667605</v>
       </c>
       <c r="D34">
-        <v>0.05038252617930605</v>
+        <v>0.005373914592652694</v>
       </c>
       <c r="E34">
-        <v>0.0006026965867450253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.007573911551780271</v>
+      </c>
+      <c r="F34">
+        <v>0.02005305339091331</v>
+      </c>
+      <c r="G34">
+        <v>0.03687316318945227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01152249068768738</v>
+        <v>0.01147988947363096</v>
       </c>
       <c r="C36">
-        <v>-0.01722444639525066</v>
+        <v>-0.007166654622589241</v>
       </c>
       <c r="D36">
-        <v>0.002475223185971253</v>
+        <v>-0.01135686558414324</v>
       </c>
       <c r="E36">
-        <v>0.001738531499784317</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.004313818887387274</v>
+      </c>
+      <c r="F36">
+        <v>-0.003862828153490088</v>
+      </c>
+      <c r="G36">
+        <v>0.02390840109843284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006534859148025963</v>
+        <v>0.03196754980467476</v>
       </c>
       <c r="C38">
-        <v>-0.02699558340592246</v>
+        <v>-0.02555346346572385</v>
       </c>
       <c r="D38">
-        <v>0.02432277697047336</v>
+        <v>0.007824760440523069</v>
       </c>
       <c r="E38">
-        <v>-0.0001954845067529961</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003599613150184084</v>
+      </c>
+      <c r="F38">
+        <v>-0.003942280599760269</v>
+      </c>
+      <c r="G38">
+        <v>0.03266833694053351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005822938518651766</v>
+        <v>0.03364149938089289</v>
       </c>
       <c r="C39">
-        <v>0.01639831021898878</v>
+        <v>-0.08073380804113332</v>
       </c>
       <c r="D39">
-        <v>0.09734780919552531</v>
+        <v>-0.01204748890867683</v>
       </c>
       <c r="E39">
-        <v>-0.01555813429754368</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02457535190394629</v>
+      </c>
+      <c r="F39">
+        <v>0.03673237939700924</v>
+      </c>
+      <c r="G39">
+        <v>0.02751635742489656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01052072276998547</v>
+        <v>0.02194011023489748</v>
       </c>
       <c r="C40">
-        <v>-0.01812492611957204</v>
+        <v>-0.03077938318772794</v>
       </c>
       <c r="D40">
-        <v>0.03993789446886623</v>
+        <v>-0.01291388915844623</v>
       </c>
       <c r="E40">
-        <v>-0.01160984825886225</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01863937363891521</v>
+      </c>
+      <c r="F40">
+        <v>0.01841100587728832</v>
+      </c>
+      <c r="G40">
+        <v>0.02366143467084328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.004866637929215932</v>
+        <v>0.01244152928790647</v>
       </c>
       <c r="C41">
-        <v>-0.01996333003192579</v>
+        <v>0.001437517152406531</v>
       </c>
       <c r="D41">
-        <v>-0.007107746871918779</v>
+        <v>-0.003479267812071716</v>
       </c>
       <c r="E41">
-        <v>0.002547576362093422</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0008121367275450456</v>
+      </c>
+      <c r="F41">
+        <v>-0.001970017175067285</v>
+      </c>
+      <c r="G41">
+        <v>0.01569364712175806</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09084723447381675</v>
+        <v>0.0208532522606909</v>
       </c>
       <c r="C42">
-        <v>-0.006351835846738395</v>
+        <v>-0.04645166057024899</v>
       </c>
       <c r="D42">
-        <v>0.2258225625308982</v>
+        <v>-0.09711487555636719</v>
       </c>
       <c r="E42">
-        <v>-0.2844239717468773</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04344336325095273</v>
+      </c>
+      <c r="F42">
+        <v>-0.04784054527754412</v>
+      </c>
+      <c r="G42">
+        <v>-0.1808849671356317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005686856344981335</v>
+        <v>0.02871036601449732</v>
       </c>
       <c r="C43">
-        <v>-0.02022434021200702</v>
+        <v>-0.007997834063071608</v>
       </c>
       <c r="D43">
-        <v>-0.012493085083013</v>
+        <v>-0.003749804708262211</v>
       </c>
       <c r="E43">
-        <v>-0.0008782032176861637</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.006514927828451138</v>
+      </c>
+      <c r="F43">
+        <v>-0.003563838847660211</v>
+      </c>
+      <c r="G43">
+        <v>0.0216946040130938</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002736189004818619</v>
+        <v>0.01532216543278219</v>
       </c>
       <c r="C44">
-        <v>0.002975695699286028</v>
+        <v>-0.04821469920473238</v>
       </c>
       <c r="D44">
-        <v>0.03001716740568001</v>
+        <v>-0.00664022351289781</v>
       </c>
       <c r="E44">
-        <v>0.002122167879091991</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.0159512972048543</v>
+      </c>
+      <c r="F44">
+        <v>0.0131866822929057</v>
+      </c>
+      <c r="G44">
+        <v>0.03854849645963011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01040104714136929</v>
+        <v>0.005823169606166637</v>
       </c>
       <c r="C46">
-        <v>-0.01667920381827844</v>
+        <v>-0.01755942839443896</v>
       </c>
       <c r="D46">
-        <v>0.01853594022955668</v>
+        <v>-0.01170995434517692</v>
       </c>
       <c r="E46">
-        <v>-0.004103986506800232</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.000181914590913328</v>
+      </c>
+      <c r="F46">
+        <v>-0.01435367129762121</v>
+      </c>
+      <c r="G46">
+        <v>0.02575291697140623</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0002766884787002567</v>
+        <v>0.07382768013667008</v>
       </c>
       <c r="C47">
-        <v>-0.06058838369447223</v>
+        <v>-0.06407579316975884</v>
       </c>
       <c r="D47">
-        <v>0.0486544032942187</v>
+        <v>0.004936797558053149</v>
       </c>
       <c r="E47">
-        <v>-0.008278399564716194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01490080183384664</v>
+      </c>
+      <c r="F47">
+        <v>-0.05523287101499669</v>
+      </c>
+      <c r="G47">
+        <v>0.02447480493336396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002303215619117752</v>
+        <v>0.02189944769422408</v>
       </c>
       <c r="C48">
-        <v>-0.02743766167467499</v>
+        <v>-0.009071911151069209</v>
       </c>
       <c r="D48">
-        <v>0.01116917865886433</v>
+        <v>-0.000570728520437718</v>
       </c>
       <c r="E48">
-        <v>-0.0009389783384181078</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.001473737323448407</v>
+      </c>
+      <c r="F48">
+        <v>-0.01588868760468478</v>
+      </c>
+      <c r="G48">
+        <v>0.02871147577462335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.001684945977439018</v>
+        <v>0.08045668132456593</v>
       </c>
       <c r="C50">
-        <v>-0.05080312850739675</v>
+        <v>-0.06552848592791023</v>
       </c>
       <c r="D50">
-        <v>0.06300584623032907</v>
+        <v>0.003745778071645256</v>
       </c>
       <c r="E50">
-        <v>0.01698689628009022</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01173828247603441</v>
+      </c>
+      <c r="F50">
+        <v>-0.05708098458931862</v>
+      </c>
+      <c r="G50">
+        <v>0.04739410503189063</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006858109044192491</v>
+        <v>0.01229329739712304</v>
       </c>
       <c r="C51">
-        <v>-0.02052431565266082</v>
+        <v>-0.02768332051433624</v>
       </c>
       <c r="D51">
-        <v>-0.01321284995487616</v>
+        <v>-0.008893709533163064</v>
       </c>
       <c r="E51">
-        <v>0.009478517702497878</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01120371348984666</v>
+      </c>
+      <c r="F51">
+        <v>0.02512944856408698</v>
+      </c>
+      <c r="G51">
+        <v>0.05236457811976941</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.003004992123477736</v>
+        <v>0.09341010579664978</v>
       </c>
       <c r="C53">
-        <v>-0.08340687093136386</v>
+        <v>-0.08000162435237831</v>
       </c>
       <c r="D53">
-        <v>0.1044069603488202</v>
+        <v>0.005331586616995379</v>
       </c>
       <c r="E53">
-        <v>-0.006269826002115188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04016070156516643</v>
+      </c>
+      <c r="F53">
+        <v>-0.06468446041676469</v>
+      </c>
+      <c r="G53">
+        <v>0.02517699121811802</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001637940600862327</v>
+        <v>0.03009463356291448</v>
       </c>
       <c r="C54">
-        <v>-0.03362009283332845</v>
+        <v>-0.007567592958743759</v>
       </c>
       <c r="D54">
-        <v>-0.009293500002366874</v>
+        <v>0.003358836951123424</v>
       </c>
       <c r="E54">
-        <v>0.01121656294065543</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.005703503616027093</v>
+      </c>
+      <c r="F54">
+        <v>-0.003832368547538789</v>
+      </c>
+      <c r="G54">
+        <v>0.03401610974057401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.000824400967348131</v>
+        <v>0.07323979090660537</v>
       </c>
       <c r="C55">
-        <v>-0.05964823932173122</v>
+        <v>-0.07333265010128606</v>
       </c>
       <c r="D55">
-        <v>0.08975316162944937</v>
+        <v>0.004521241049293023</v>
       </c>
       <c r="E55">
-        <v>-0.01668168324562487</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02941075294394091</v>
+      </c>
+      <c r="F55">
+        <v>-0.05863861331404001</v>
+      </c>
+      <c r="G55">
+        <v>0.01102148849735154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0004297142213095129</v>
+        <v>0.1434154855287826</v>
       </c>
       <c r="C56">
-        <v>-0.104974186467619</v>
+        <v>-0.1035509192802285</v>
       </c>
       <c r="D56">
-        <v>0.1326494345256715</v>
+        <v>0.01359619461352695</v>
       </c>
       <c r="E56">
-        <v>-0.01877050868100748</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04348305137644626</v>
+      </c>
+      <c r="F56">
+        <v>-0.09328420719446041</v>
+      </c>
+      <c r="G56">
+        <v>-0.001626348547920594</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02279133186927684</v>
+        <v>0.0116743184475246</v>
       </c>
       <c r="C57">
-        <v>-0.01960538272636184</v>
+        <v>-0.01072849051251303</v>
       </c>
       <c r="D57">
-        <v>0.03800916989216788</v>
+        <v>-0.02359907340728595</v>
       </c>
       <c r="E57">
-        <v>-0.01259043794679189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.0281308456809723</v>
+      </c>
+      <c r="F57">
+        <v>0.01586054498953798</v>
+      </c>
+      <c r="G57">
+        <v>0.02020177061489292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.00863857044695425</v>
+        <v>0.08206823734656055</v>
       </c>
       <c r="C58">
-        <v>-0.08726402698875425</v>
+        <v>-0.05465677819314058</v>
       </c>
       <c r="D58">
-        <v>0.09892175208925043</v>
+        <v>-0.01887221646581625</v>
       </c>
       <c r="E58">
-        <v>-0.2181134529668246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9460679727690278</v>
+      </c>
+      <c r="F58">
+        <v>-0.22189711432048</v>
+      </c>
+      <c r="G58">
+        <v>0.00740044709768765</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02213454263361075</v>
+        <v>0.1518614838495395</v>
       </c>
       <c r="C59">
-        <v>-0.226127942903378</v>
+        <v>0.2123650648655535</v>
       </c>
       <c r="D59">
-        <v>-0.1893352387237832</v>
+        <v>0.01678318155956946</v>
       </c>
       <c r="E59">
-        <v>0.003518009184022438</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01338132009817102</v>
+      </c>
+      <c r="F59">
+        <v>0.005791799121991275</v>
+      </c>
+      <c r="G59">
+        <v>0.020689080881501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02826682934380931</v>
+        <v>0.292060796286876</v>
       </c>
       <c r="C60">
-        <v>-0.1639141556973816</v>
+        <v>-0.08645399387690372</v>
       </c>
       <c r="D60">
-        <v>0.0752124312188336</v>
+        <v>-0.008028996623971088</v>
       </c>
       <c r="E60">
-        <v>-0.05095328325170943</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.002140579745809335</v>
+      </c>
+      <c r="F60">
+        <v>0.3718367896011697</v>
+      </c>
+      <c r="G60">
+        <v>-0.08036279573789724</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002722635601065389</v>
+        <v>0.03379936725214108</v>
       </c>
       <c r="C61">
-        <v>-0.009236837792953461</v>
+        <v>-0.06383289686446651</v>
       </c>
       <c r="D61">
-        <v>0.06717369078053567</v>
+        <v>-0.005269378443934745</v>
       </c>
       <c r="E61">
-        <v>-0.009944281550053669</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01145227650446616</v>
+      </c>
+      <c r="F61">
+        <v>0.01962729495638989</v>
+      </c>
+      <c r="G61">
+        <v>0.02499839650861422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007010072406753089</v>
+        <v>0.01275160256220797</v>
       </c>
       <c r="C63">
-        <v>-0.007716690920671961</v>
+        <v>-0.0291256537814524</v>
       </c>
       <c r="D63">
-        <v>0.01077576209489176</v>
+        <v>-0.008218060275603576</v>
       </c>
       <c r="E63">
-        <v>0.005995711801376955</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.005433099224223348</v>
+      </c>
+      <c r="F63">
+        <v>-0.01881142750940853</v>
+      </c>
+      <c r="G63">
+        <v>0.03642098616797237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.00649685524710415</v>
+        <v>0.05026576355157465</v>
       </c>
       <c r="C64">
-        <v>-0.03501355661926708</v>
+        <v>-0.03807537371796353</v>
       </c>
       <c r="D64">
-        <v>0.06459018983853337</v>
+        <v>-0.00490800883439791</v>
       </c>
       <c r="E64">
-        <v>-0.01347411405003695</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.004477835644233629</v>
+      </c>
+      <c r="F64">
+        <v>0.00398716717717575</v>
+      </c>
+      <c r="G64">
+        <v>0.02211569166445285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01710782168175877</v>
+        <v>0.0851936203891366</v>
       </c>
       <c r="C65">
-        <v>-0.0284716426178886</v>
+        <v>-0.06321285864661841</v>
       </c>
       <c r="D65">
-        <v>0.09303065008986362</v>
+        <v>-0.01464770418060866</v>
       </c>
       <c r="E65">
-        <v>-0.004061529821886184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.009102357112110774</v>
+      </c>
+      <c r="F65">
+        <v>0.02814844889873406</v>
+      </c>
+      <c r="G65">
+        <v>0.01165017465596267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005298131898731318</v>
+        <v>0.05444400552594249</v>
       </c>
       <c r="C66">
-        <v>0.005507724932253133</v>
+        <v>-0.1140029281426207</v>
       </c>
       <c r="D66">
-        <v>0.118486876795505</v>
+        <v>-0.01159274190006868</v>
       </c>
       <c r="E66">
-        <v>-0.03254143360659136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02598880745278901</v>
+      </c>
+      <c r="F66">
+        <v>0.04524142331785356</v>
+      </c>
+      <c r="G66">
+        <v>0.01861564971997684</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001685125510782668</v>
+        <v>0.05482482742199308</v>
       </c>
       <c r="C67">
-        <v>-0.04538407737872239</v>
+        <v>-0.02970742213525769</v>
       </c>
       <c r="D67">
-        <v>0.02698951238984244</v>
+        <v>0.006156493006798423</v>
       </c>
       <c r="E67">
-        <v>-0.003020697056954532</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.005118891000804552</v>
+      </c>
+      <c r="F67">
+        <v>-0.004367361622484324</v>
+      </c>
+      <c r="G67">
+        <v>0.03070913514477156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.03940048728182496</v>
+        <v>0.1332199775389917</v>
       </c>
       <c r="C68">
-        <v>-0.1918259695087033</v>
+        <v>0.2694380691734043</v>
       </c>
       <c r="D68">
-        <v>-0.1810926309200614</v>
+        <v>-0.00130103484403381</v>
       </c>
       <c r="E68">
-        <v>0.001101822613751874</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01039779297177849</v>
+      </c>
+      <c r="F68">
+        <v>-0.03828439821537033</v>
+      </c>
+      <c r="G68">
+        <v>0.02091543565522271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003682714696095764</v>
+        <v>0.07800579562042458</v>
       </c>
       <c r="C69">
-        <v>-0.04693409812312546</v>
+        <v>-0.06447045752548858</v>
       </c>
       <c r="D69">
-        <v>0.05447450953187081</v>
+        <v>0.008988480370643865</v>
       </c>
       <c r="E69">
-        <v>-0.003257566962563961</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03099476756509204</v>
+      </c>
+      <c r="F69">
+        <v>-0.04137323362202463</v>
+      </c>
+      <c r="G69">
+        <v>0.02568479834031896</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02750106162058216</v>
+        <v>0.1322378539366759</v>
       </c>
       <c r="C71">
-        <v>-0.1728067643610218</v>
+        <v>0.2316968917412229</v>
       </c>
       <c r="D71">
-        <v>-0.160044186599566</v>
+        <v>0.007936087043450047</v>
       </c>
       <c r="E71">
-        <v>0.01283093569193593</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02538867426588202</v>
+      </c>
+      <c r="F71">
+        <v>-0.01447643247974841</v>
+      </c>
+      <c r="G71">
+        <v>0.03151987804070391</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.003086124637023375</v>
+        <v>0.08334372437816337</v>
       </c>
       <c r="C72">
-        <v>-0.05273092079591088</v>
+        <v>-0.07295782979569641</v>
       </c>
       <c r="D72">
-        <v>0.1372605877573863</v>
+        <v>0.008792148353200266</v>
       </c>
       <c r="E72">
-        <v>-0.03551618675020186</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01293807878215561</v>
+      </c>
+      <c r="F72">
+        <v>0.03939405308408869</v>
+      </c>
+      <c r="G72">
+        <v>0.008561783736053073</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04159335980914802</v>
+        <v>0.4008617267330015</v>
       </c>
       <c r="C73">
-        <v>-0.1947084084363696</v>
+        <v>-0.09475890216397219</v>
       </c>
       <c r="D73">
-        <v>0.1383152314732573</v>
+        <v>-0.01291298122765079</v>
       </c>
       <c r="E73">
-        <v>-0.1164709971976328</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.05522297555766269</v>
+      </c>
+      <c r="F73">
+        <v>0.5446702378350764</v>
+      </c>
+      <c r="G73">
+        <v>-0.1265982896958274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001655086255244286</v>
+        <v>0.1185501836248876</v>
       </c>
       <c r="C74">
-        <v>-0.09898192246013587</v>
+        <v>-0.1166169131869691</v>
       </c>
       <c r="D74">
-        <v>0.1305789409783644</v>
+        <v>0.01026723262698988</v>
       </c>
       <c r="E74">
-        <v>-0.02626942359435648</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.02557819323705742</v>
+      </c>
+      <c r="F74">
+        <v>-0.08243401088441603</v>
+      </c>
+      <c r="G74">
+        <v>0.03076451336907723</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.0009585640646517018</v>
+        <v>0.2597913887312946</v>
       </c>
       <c r="C75">
-        <v>-0.2299796260862725</v>
+        <v>-0.1506530625922815</v>
       </c>
       <c r="D75">
-        <v>0.2229109717767072</v>
+        <v>0.03103745865867816</v>
       </c>
       <c r="E75">
-        <v>-0.05420081228481174</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.07348875326979426</v>
+      </c>
+      <c r="F75">
+        <v>-0.2033778783288107</v>
+      </c>
+      <c r="G75">
+        <v>-0.04051141929722957</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.00609824468046829</v>
+        <v>0.1363149648301848</v>
       </c>
       <c r="C76">
-        <v>-0.1715385257046939</v>
+        <v>-0.124883601583356</v>
       </c>
       <c r="D76">
-        <v>0.2112164870552853</v>
+        <v>0.02113765043165322</v>
       </c>
       <c r="E76">
-        <v>-0.01915335975505915</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.06785677326511665</v>
+      </c>
+      <c r="F76">
+        <v>-0.1345087687243124</v>
+      </c>
+      <c r="G76">
+        <v>0.01213794161179104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01199307593251307</v>
+        <v>0.06392140221939119</v>
       </c>
       <c r="C77">
-        <v>-0.01491786109953283</v>
+        <v>-0.06443738576904766</v>
       </c>
       <c r="D77">
-        <v>0.06454959223316113</v>
+        <v>-0.01275138012687655</v>
       </c>
       <c r="E77">
-        <v>-0.01129795074074456</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04716633630957934</v>
+      </c>
+      <c r="F77">
+        <v>0.01537625701808386</v>
+      </c>
+      <c r="G77">
+        <v>0.04920732362478417</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.003955622930807607</v>
+        <v>0.04043703534427773</v>
       </c>
       <c r="C78">
-        <v>-0.01643802122013947</v>
+        <v>-0.05010140993769462</v>
       </c>
       <c r="D78">
-        <v>0.06214208437507056</v>
+        <v>-0.00546270153583242</v>
       </c>
       <c r="E78">
-        <v>-0.007021690612327982</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02046200476047852</v>
+      </c>
+      <c r="F78">
+        <v>0.04265594995105079</v>
+      </c>
+      <c r="G78">
+        <v>0.03409591819294616</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01337609683082372</v>
+        <v>0.05982676093838316</v>
       </c>
       <c r="C80">
-        <v>-0.1614661734518558</v>
+        <v>-0.06553936990951693</v>
       </c>
       <c r="D80">
-        <v>0.2404149365143614</v>
+        <v>-0.0118106722698939</v>
       </c>
       <c r="E80">
-        <v>0.8922291278668754</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03913735885030146</v>
+      </c>
+      <c r="F80">
+        <v>0.03784258884711865</v>
+      </c>
+      <c r="G80">
+        <v>0.9129404437049357</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0001715220271136049</v>
+        <v>0.145837119253621</v>
       </c>
       <c r="C81">
-        <v>-0.1458374826502115</v>
+        <v>-0.09294667457689945</v>
       </c>
       <c r="D81">
-        <v>0.1450581032214213</v>
+        <v>0.01602273799489739</v>
       </c>
       <c r="E81">
-        <v>-0.02558208890168278</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04019116058019599</v>
+      </c>
+      <c r="F81">
+        <v>-0.1337804614081481</v>
+      </c>
+      <c r="G81">
+        <v>0.01196305865649212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05359758094852593</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.03770622777905348</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.00282392030531975</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01925921206147028</v>
+      </c>
+      <c r="F82">
+        <v>-0.008598224661762357</v>
+      </c>
+      <c r="G82">
+        <v>-0.006154708271604808</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006367480605896502</v>
+        <v>0.02825563497843557</v>
       </c>
       <c r="C83">
-        <v>-0.03049977064064414</v>
+        <v>-0.0211959058745344</v>
       </c>
       <c r="D83">
-        <v>0.02449433246532358</v>
+        <v>-0.00529066478961488</v>
       </c>
       <c r="E83">
-        <v>-0.009878877106253405</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02400307919274977</v>
+      </c>
+      <c r="F83">
+        <v>0.01815251502191908</v>
+      </c>
+      <c r="G83">
+        <v>0.02332345240017007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.007679634471796071</v>
+        <v>0.234401618748227</v>
       </c>
       <c r="C85">
-        <v>-0.1795977762987203</v>
+        <v>-0.1486819589538538</v>
       </c>
       <c r="D85">
-        <v>0.2369682145970202</v>
+        <v>0.01949519172581546</v>
       </c>
       <c r="E85">
-        <v>-0.05932209128801279</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1201895543345567</v>
+      </c>
+      <c r="F85">
+        <v>-0.1766847599428167</v>
+      </c>
+      <c r="G85">
+        <v>-0.06217274878484425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005274954895497278</v>
+        <v>0.01278161141024898</v>
       </c>
       <c r="C86">
-        <v>-0.01397690272349015</v>
+        <v>-0.01604169111491223</v>
       </c>
       <c r="D86">
-        <v>0.007823834291946679</v>
+        <v>-0.009270657949017646</v>
       </c>
       <c r="E86">
-        <v>-0.01817235020470905</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03596823543713277</v>
+      </c>
+      <c r="F86">
+        <v>0.03410280469243124</v>
+      </c>
+      <c r="G86">
+        <v>0.05098127670858062</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007333459601086213</v>
+        <v>0.01626606865365798</v>
       </c>
       <c r="C87">
-        <v>-0.01416803302690395</v>
+        <v>-0.0279836341347014</v>
       </c>
       <c r="D87">
-        <v>0.03846404770679356</v>
+        <v>-0.01157354384171129</v>
       </c>
       <c r="E87">
-        <v>-0.009089026740868542</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07346351026901574</v>
+      </c>
+      <c r="F87">
+        <v>0.0449372269213552</v>
+      </c>
+      <c r="G87">
+        <v>0.04338551622880792</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02569872861108219</v>
+        <v>0.09142734599892804</v>
       </c>
       <c r="C88">
-        <v>-0.04579103343929442</v>
+        <v>-0.05863555217206699</v>
       </c>
       <c r="D88">
-        <v>0.02655325862976383</v>
+        <v>-0.02152068077430044</v>
       </c>
       <c r="E88">
-        <v>-0.007556247469175937</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01144902651176208</v>
+      </c>
+      <c r="F88">
+        <v>-0.01239099243713412</v>
+      </c>
+      <c r="G88">
+        <v>0.02112081118791544</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05282419300707106</v>
+        <v>0.2191596730357618</v>
       </c>
       <c r="C89">
-        <v>-0.3359135854945876</v>
+        <v>0.3707223031125998</v>
       </c>
       <c r="D89">
-        <v>-0.2876474676030227</v>
+        <v>0.008905638448942366</v>
       </c>
       <c r="E89">
-        <v>0.0003623289459849793</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02336156244543637</v>
+      </c>
+      <c r="F89">
+        <v>-0.03115436879866474</v>
+      </c>
+      <c r="G89">
+        <v>0.03085852992271302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04013776481669896</v>
+        <v>0.1887985216704526</v>
       </c>
       <c r="C90">
-        <v>-0.248495780928144</v>
+        <v>0.3364818420832362</v>
       </c>
       <c r="D90">
-        <v>-0.260846329398888</v>
+        <v>0.01212663002931315</v>
       </c>
       <c r="E90">
-        <v>-0.002906715331724138</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.006742220599701155</v>
+      </c>
+      <c r="F90">
+        <v>-0.05365097938313413</v>
+      </c>
+      <c r="G90">
+        <v>-0.003170101346990487</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.002921410634810029</v>
+        <v>0.2070804350011101</v>
       </c>
       <c r="C91">
-        <v>-0.1932488372644908</v>
+        <v>-0.1378482344554758</v>
       </c>
       <c r="D91">
-        <v>0.2173738131522542</v>
+        <v>0.02505019172000399</v>
       </c>
       <c r="E91">
-        <v>-0.04021891165622546</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08636063317218667</v>
+      </c>
+      <c r="F91">
+        <v>-0.1801131039698189</v>
+      </c>
+      <c r="G91">
+        <v>-0.001624579543548376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.006398943535227605</v>
+        <v>0.2002977811111696</v>
       </c>
       <c r="C92">
-        <v>-0.3264328892130344</v>
+        <v>0.2617272001365906</v>
       </c>
       <c r="D92">
-        <v>-0.1357907061646102</v>
+        <v>0.05002071719508884</v>
       </c>
       <c r="E92">
-        <v>-0.009578084806722537</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.002336411814895284</v>
+      </c>
+      <c r="F92">
+        <v>-0.1187593355155956</v>
+      </c>
+      <c r="G92">
+        <v>0.06478580162378804</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03701379498366521</v>
+        <v>0.2151671710039459</v>
       </c>
       <c r="C93">
-        <v>-0.2868822078506802</v>
+        <v>0.3369217525348361</v>
       </c>
       <c r="D93">
-        <v>-0.2647279934212288</v>
+        <v>0.0193325469925697</v>
       </c>
       <c r="E93">
-        <v>-0.02550668753525204</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.006304632603500599</v>
+      </c>
+      <c r="F93">
+        <v>-0.03060000598911485</v>
+      </c>
+      <c r="G93">
+        <v>-0.0009426135591754949</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01860078668809893</v>
+        <v>0.2891032249865553</v>
       </c>
       <c r="C94">
-        <v>-0.2400054526233086</v>
+        <v>-0.1668683806126067</v>
       </c>
       <c r="D94">
-        <v>0.2104619680557556</v>
+        <v>0.01408823279941327</v>
       </c>
       <c r="E94">
-        <v>-0.08962492956142103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.111551365916941</v>
+      </c>
+      <c r="F94">
+        <v>-0.4266181699465423</v>
+      </c>
+      <c r="G94">
+        <v>-0.1395592692087387</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.00670267190509523</v>
+        <v>0.08826968605223151</v>
       </c>
       <c r="C95">
-        <v>-0.04607986754779748</v>
+        <v>-0.07483274561549381</v>
       </c>
       <c r="D95">
-        <v>0.07204236731694699</v>
+        <v>0.006972357128970087</v>
       </c>
       <c r="E95">
-        <v>-0.123959964124867</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07654980867611916</v>
+      </c>
+      <c r="F95">
+        <v>0.1972764312768577</v>
+      </c>
+      <c r="G95">
+        <v>-0.06772396227214805</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.003958733450696498</v>
+        <v>0.2073446250384972</v>
       </c>
       <c r="C98">
-        <v>-0.1707895615021921</v>
+        <v>-0.04063249166536034</v>
       </c>
       <c r="D98">
-        <v>0.1024964792734369</v>
+        <v>0.01691209805126683</v>
       </c>
       <c r="E98">
-        <v>-0.07491633940768498</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06167580398746302</v>
+      </c>
+      <c r="F98">
+        <v>0.2553255661279409</v>
+      </c>
+      <c r="G98">
+        <v>-0.03147721348726738</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006956237033619024</v>
+        <v>0.01416212936559666</v>
       </c>
       <c r="C101">
-        <v>-0.01829070163124239</v>
+        <v>-0.0207065680947669</v>
       </c>
       <c r="D101">
-        <v>0.01557647461310618</v>
+        <v>-0.006969338875159183</v>
       </c>
       <c r="E101">
-        <v>0.004954629405482708</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.005363687266962926</v>
+      </c>
+      <c r="F101">
+        <v>-0.01400786676207396</v>
+      </c>
+      <c r="G101">
+        <v>0.02888128297186939</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01300691275527498</v>
+        <v>0.1225813410199471</v>
       </c>
       <c r="C102">
-        <v>-0.1155364443982412</v>
+        <v>-0.08237787273826414</v>
       </c>
       <c r="D102">
-        <v>0.1125560727123548</v>
+        <v>-0.0004706696806935351</v>
       </c>
       <c r="E102">
-        <v>-0.02988223792304658</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04056727533961579</v>
+      </c>
+      <c r="F102">
+        <v>-0.05206439694905884</v>
+      </c>
+      <c r="G102">
+        <v>-0.009793986783714992</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001859307700366647</v>
+        <v>0.004497472372883915</v>
       </c>
       <c r="C103">
-        <v>-0.01820882331999949</v>
+        <v>-0.004817977818220307</v>
       </c>
       <c r="D103">
-        <v>0.02663770401393478</v>
+        <v>-0.0004844150771047062</v>
       </c>
       <c r="E103">
-        <v>0.01067211930723969</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001208476835017293</v>
+      </c>
+      <c r="F103">
+        <v>-0.008872132597034253</v>
+      </c>
+      <c r="G103">
+        <v>0.01751791277370369</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9860006821351924</v>
+        <v>0.03616308741570834</v>
       </c>
       <c r="C104">
-        <v>0.09581444800113374</v>
+        <v>0.0433109415719638</v>
       </c>
       <c r="D104">
-        <v>0.005965923208942728</v>
+        <v>-0.9868946004952778</v>
       </c>
       <c r="E104">
-        <v>0.02630671743423976</v>
+        <v>0.04319971446046602</v>
+      </c>
+      <c r="F104">
+        <v>-0.04010577227508</v>
+      </c>
+      <c r="G104">
+        <v>-0.00535501356267357</v>
       </c>
     </row>
   </sheetData>
